--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9629840000000001</v>
+        <v>1.977922333333334</v>
       </c>
       <c r="H2">
-        <v>2.888952</v>
+        <v>5.933767</v>
       </c>
       <c r="I2">
-        <v>0.01399805369068136</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="J2">
-        <v>0.01399805369068137</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.078637666666665</v>
+        <v>6.516961333333334</v>
       </c>
       <c r="N2">
-        <v>21.235913</v>
+        <v>19.550884</v>
       </c>
       <c r="O2">
-        <v>0.07272632720268933</v>
+        <v>0.1274706027287386</v>
       </c>
       <c r="P2">
-        <v>0.07272632720268932</v>
+        <v>0.1274706027287386</v>
       </c>
       <c r="Q2">
-        <v>6.816614814797332</v>
+        <v>12.89004336666978</v>
       </c>
       <c r="R2">
-        <v>61.34953333317599</v>
+        <v>116.010390300028</v>
       </c>
       <c r="S2">
-        <v>0.001018027032909306</v>
+        <v>0.001474295579895405</v>
       </c>
       <c r="T2">
-        <v>0.001018027032909306</v>
+        <v>0.001474295579895405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9629840000000001</v>
+        <v>1.977922333333334</v>
       </c>
       <c r="H3">
-        <v>2.888952</v>
+        <v>5.933767</v>
       </c>
       <c r="I3">
-        <v>0.01399805369068136</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="J3">
-        <v>0.01399805369068137</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.166899000000001</v>
+        <v>7.166899</v>
       </c>
       <c r="N3">
         <v>21.500697</v>
       </c>
       <c r="O3">
-        <v>0.0736331291764042</v>
+        <v>0.140183267706871</v>
       </c>
       <c r="P3">
-        <v>0.07363312917640419</v>
+        <v>0.140183267706871</v>
       </c>
       <c r="Q3">
-        <v>6.901609066616001</v>
+        <v>14.17556959284433</v>
       </c>
       <c r="R3">
-        <v>62.11448159954401</v>
+        <v>127.580126335599</v>
       </c>
       <c r="S3">
-        <v>0.001030720495624182</v>
+        <v>0.001621327329841985</v>
       </c>
       <c r="T3">
-        <v>0.001030720495624182</v>
+        <v>0.001621327329841985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9629840000000001</v>
+        <v>1.977922333333334</v>
       </c>
       <c r="H4">
-        <v>2.888952</v>
+        <v>5.933767</v>
       </c>
       <c r="I4">
-        <v>0.01399805369068136</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="J4">
-        <v>0.01399805369068137</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.27985899999999</v>
+        <v>14.67239033333333</v>
       </c>
       <c r="N4">
-        <v>114.839577</v>
+        <v>44.017171</v>
       </c>
       <c r="O4">
-        <v>0.3932894551188091</v>
+        <v>0.2869893411358767</v>
       </c>
       <c r="P4">
-        <v>0.3932894551188091</v>
+        <v>0.2869893411358767</v>
       </c>
       <c r="Q4">
-        <v>36.862891739256</v>
+        <v>29.02084852368412</v>
       </c>
       <c r="R4">
-        <v>331.766025653304</v>
+        <v>261.1876367131571</v>
       </c>
       <c r="S4">
-        <v>0.005505286908731909</v>
+        <v>0.003319252502587616</v>
       </c>
       <c r="T4">
-        <v>0.00550528690873191</v>
+        <v>0.003319252502587616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9629840000000001</v>
+        <v>1.977922333333334</v>
       </c>
       <c r="H5">
-        <v>2.888952</v>
+        <v>5.933767</v>
       </c>
       <c r="I5">
-        <v>0.01399805369068136</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="J5">
-        <v>0.01399805369068137</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.39243833333333</v>
+        <v>6.985846333333334</v>
       </c>
       <c r="N5">
-        <v>46.177315</v>
+        <v>20.957539</v>
       </c>
       <c r="O5">
-        <v>0.158142789529777</v>
+        <v>0.1366419098001423</v>
       </c>
       <c r="P5">
-        <v>0.158142789529777</v>
+        <v>0.1366419098001423</v>
       </c>
       <c r="Q5">
-        <v>14.82267183598667</v>
+        <v>13.81746147993478</v>
       </c>
       <c r="R5">
-        <v>133.40404652388</v>
+        <v>124.357153319413</v>
       </c>
       <c r="S5">
-        <v>0.00221369125863194</v>
+        <v>0.001580368801389521</v>
       </c>
       <c r="T5">
-        <v>0.002213691258631941</v>
+        <v>0.001580368801389521</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9629840000000001</v>
+        <v>1.977922333333334</v>
       </c>
       <c r="H6">
-        <v>2.888952</v>
+        <v>5.933767</v>
       </c>
       <c r="I6">
-        <v>0.01399805369068136</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="J6">
-        <v>0.01399805369068137</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.41469933333333</v>
+        <v>15.783113</v>
       </c>
       <c r="N6">
-        <v>88.24409800000001</v>
+        <v>47.349339</v>
       </c>
       <c r="O6">
-        <v>0.3022082989723203</v>
+        <v>0.3087148786283714</v>
       </c>
       <c r="P6">
-        <v>0.3022082989723203</v>
+        <v>0.3087148786283714</v>
       </c>
       <c r="Q6">
-        <v>28.32588482281067</v>
+        <v>31.21777169222367</v>
       </c>
       <c r="R6">
-        <v>254.9329634052961</v>
+        <v>280.959945230013</v>
       </c>
       <c r="S6">
-        <v>0.004230327994784026</v>
+        <v>0.003570525056497144</v>
       </c>
       <c r="T6">
-        <v>0.004230327994784026</v>
+        <v>0.003570525056497143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>42.482327</v>
       </c>
       <c r="I7">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="J7">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.078637666666665</v>
+        <v>6.516961333333334</v>
       </c>
       <c r="N7">
-        <v>21.235913</v>
+        <v>19.550884</v>
       </c>
       <c r="O7">
-        <v>0.07272632720268933</v>
+        <v>0.1274706027287386</v>
       </c>
       <c r="P7">
-        <v>0.07272632720268932</v>
+        <v>0.1274706027287386</v>
       </c>
       <c r="Q7">
-        <v>100.2390000232834</v>
+        <v>92.28522746967423</v>
       </c>
       <c r="R7">
-        <v>902.1510002095508</v>
+        <v>830.567047227068</v>
       </c>
       <c r="S7">
-        <v>0.01497018894979664</v>
+        <v>0.01055510048166219</v>
       </c>
       <c r="T7">
-        <v>0.01497018894979663</v>
+        <v>0.01055510048166219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>42.482327</v>
       </c>
       <c r="I8">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="J8">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.166899000000001</v>
+        <v>7.166899</v>
       </c>
       <c r="N8">
         <v>21.500697</v>
       </c>
       <c r="O8">
-        <v>0.0736331291764042</v>
+        <v>0.140183267706871</v>
       </c>
       <c r="P8">
-        <v>0.07363312917640419</v>
+        <v>0.140183267706871</v>
       </c>
       <c r="Q8">
         <v>101.4888489646577</v>
       </c>
       <c r="R8">
-        <v>913.3996406819191</v>
+        <v>913.3996406819189</v>
       </c>
       <c r="S8">
-        <v>0.01515684758372884</v>
+        <v>0.01160776245517966</v>
       </c>
       <c r="T8">
-        <v>0.01515684758372883</v>
+        <v>0.01160776245517966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>42.482327</v>
       </c>
       <c r="I9">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="J9">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.27985899999999</v>
+        <v>14.67239033333333</v>
       </c>
       <c r="N9">
-        <v>114.839577</v>
+        <v>44.017171</v>
       </c>
       <c r="O9">
-        <v>0.3932894551188091</v>
+        <v>0.2869893411358767</v>
       </c>
       <c r="P9">
-        <v>0.3932894551188091</v>
+        <v>0.2869893411358767</v>
       </c>
       <c r="Q9">
-        <v>542.0724958506308</v>
+        <v>207.7724280041019</v>
       </c>
       <c r="R9">
-        <v>4878.652462655678</v>
+        <v>1869.951852036917</v>
       </c>
       <c r="S9">
-        <v>0.08095579251076795</v>
+        <v>0.02376392099832963</v>
       </c>
       <c r="T9">
-        <v>0.08095579251076795</v>
+        <v>0.02376392099832964</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>42.482327</v>
       </c>
       <c r="I10">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="J10">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.39243833333333</v>
+        <v>6.985846333333334</v>
       </c>
       <c r="N10">
-        <v>46.177315</v>
+        <v>20.957539</v>
       </c>
       <c r="O10">
-        <v>0.158142789529777</v>
+        <v>0.1366419098001423</v>
       </c>
       <c r="P10">
-        <v>0.158142789529777</v>
+        <v>0.1366419098001423</v>
       </c>
       <c r="Q10">
-        <v>217.9688662013339</v>
+        <v>98.92500276813922</v>
       </c>
       <c r="R10">
-        <v>1961.719795812005</v>
+        <v>890.3250249132529</v>
       </c>
       <c r="S10">
-        <v>0.03255255051874993</v>
+        <v>0.01131452316904719</v>
       </c>
       <c r="T10">
-        <v>0.03255255051874994</v>
+        <v>0.01131452316904719</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>42.482327</v>
       </c>
       <c r="I11">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="J11">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.41469933333333</v>
+        <v>15.783113</v>
       </c>
       <c r="N11">
-        <v>88.24409800000001</v>
+        <v>47.349339</v>
       </c>
       <c r="O11">
-        <v>0.3022082989723203</v>
+        <v>0.3087148786283714</v>
       </c>
       <c r="P11">
-        <v>0.3022082989723203</v>
+        <v>0.3087148786283714</v>
       </c>
       <c r="Q11">
-        <v>416.5349585617829</v>
+        <v>223.5011225146503</v>
       </c>
       <c r="R11">
-        <v>3748.814627056046</v>
+        <v>2011.510102631853</v>
       </c>
       <c r="S11">
-        <v>0.06220739465095621</v>
+        <v>0.02556288661347928</v>
       </c>
       <c r="T11">
-        <v>0.06220739465095622</v>
+        <v>0.02556288661347928</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.538395</v>
+        <v>80.27561433333334</v>
       </c>
       <c r="H12">
-        <v>52.615185</v>
+        <v>240.826843</v>
       </c>
       <c r="I12">
-        <v>0.2549402636579398</v>
+        <v>0.4694063147763454</v>
       </c>
       <c r="J12">
-        <v>0.2549402636579399</v>
+        <v>0.4694063147763453</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.078637666666665</v>
+        <v>6.516961333333334</v>
       </c>
       <c r="N12">
-        <v>21.235913</v>
+        <v>19.550884</v>
       </c>
       <c r="O12">
-        <v>0.07272632720268933</v>
+        <v>0.1274706027287386</v>
       </c>
       <c r="P12">
-        <v>0.07272632720268932</v>
+        <v>0.1274706027287386</v>
       </c>
       <c r="Q12">
-        <v>124.1479434598783</v>
+        <v>523.1530746199124</v>
       </c>
       <c r="R12">
-        <v>1117.331491138905</v>
+        <v>4708.377671579212</v>
       </c>
       <c r="S12">
-        <v>0.01854086903192722</v>
+        <v>0.05983550586921673</v>
       </c>
       <c r="T12">
-        <v>0.01854086903192722</v>
+        <v>0.05983550586921672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.538395</v>
+        <v>80.27561433333334</v>
       </c>
       <c r="H13">
-        <v>52.615185</v>
+        <v>240.826843</v>
       </c>
       <c r="I13">
-        <v>0.2549402636579398</v>
+        <v>0.4694063147763454</v>
       </c>
       <c r="J13">
-        <v>0.2549402636579399</v>
+        <v>0.4694063147763453</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.166899000000001</v>
+        <v>7.166899</v>
       </c>
       <c r="N13">
         <v>21.500697</v>
       </c>
       <c r="O13">
-        <v>0.0736331291764042</v>
+        <v>0.140183267706871</v>
       </c>
       <c r="P13">
-        <v>0.07363312917640419</v>
+        <v>0.140183267706871</v>
       </c>
       <c r="Q13">
-        <v>125.695905587105</v>
+        <v>575.3272200899523</v>
       </c>
       <c r="R13">
-        <v>1131.263150283945</v>
+        <v>5177.944980809571</v>
       </c>
       <c r="S13">
-        <v>0.01877204936619163</v>
+        <v>0.06580291108758819</v>
       </c>
       <c r="T13">
-        <v>0.01877204936619163</v>
+        <v>0.06580291108758818</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.538395</v>
+        <v>80.27561433333334</v>
       </c>
       <c r="H14">
-        <v>52.615185</v>
+        <v>240.826843</v>
       </c>
       <c r="I14">
-        <v>0.2549402636579398</v>
+        <v>0.4694063147763454</v>
       </c>
       <c r="J14">
-        <v>0.2549402636579399</v>
+        <v>0.4694063147763453</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>38.27985899999999</v>
+        <v>14.67239033333333</v>
       </c>
       <c r="N14">
-        <v>114.839577</v>
+        <v>44.017171</v>
       </c>
       <c r="O14">
-        <v>0.3932894551188091</v>
+        <v>0.2869893411358767</v>
       </c>
       <c r="P14">
-        <v>0.3932894551188091</v>
+        <v>0.2869893411358767</v>
       </c>
       <c r="Q14">
-        <v>671.3672876863048</v>
+        <v>1177.835147746795</v>
       </c>
       <c r="R14">
-        <v>6042.305589176744</v>
+        <v>10600.51632972115</v>
       </c>
       <c r="S14">
-        <v>0.1002653173818767</v>
+        <v>0.1347146090026833</v>
       </c>
       <c r="T14">
-        <v>0.1002653173818767</v>
+        <v>0.1347146090026833</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.538395</v>
+        <v>80.27561433333334</v>
       </c>
       <c r="H15">
-        <v>52.615185</v>
+        <v>240.826843</v>
       </c>
       <c r="I15">
-        <v>0.2549402636579398</v>
+        <v>0.4694063147763454</v>
       </c>
       <c r="J15">
-        <v>0.2549402636579399</v>
+        <v>0.4694063147763453</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.39243833333333</v>
+        <v>6.985846333333334</v>
       </c>
       <c r="N15">
-        <v>46.177315</v>
+        <v>20.957539</v>
       </c>
       <c r="O15">
-        <v>0.158142789529777</v>
+        <v>0.1366419098001423</v>
       </c>
       <c r="P15">
-        <v>0.158142789529777</v>
+        <v>0.1366419098001423</v>
       </c>
       <c r="Q15">
-        <v>269.9586635031416</v>
+        <v>560.7931060465975</v>
       </c>
       <c r="R15">
-        <v>2429.627971528275</v>
+        <v>5047.137954419377</v>
       </c>
       <c r="S15">
-        <v>0.04031696445832342</v>
+        <v>0.0641405753232866</v>
       </c>
       <c r="T15">
-        <v>0.04031696445832343</v>
+        <v>0.06414057532328658</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.538395</v>
+        <v>80.27561433333334</v>
       </c>
       <c r="H16">
-        <v>52.615185</v>
+        <v>240.826843</v>
       </c>
       <c r="I16">
-        <v>0.2549402636579398</v>
+        <v>0.4694063147763454</v>
       </c>
       <c r="J16">
-        <v>0.2549402636579399</v>
+        <v>0.4694063147763453</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.41469933333333</v>
+        <v>15.783113</v>
       </c>
       <c r="N16">
-        <v>88.24409800000001</v>
+        <v>47.349339</v>
       </c>
       <c r="O16">
-        <v>0.3022082989723203</v>
+        <v>0.3087148786283714</v>
       </c>
       <c r="P16">
-        <v>0.3022082989723203</v>
+        <v>0.3087148786283714</v>
       </c>
       <c r="Q16">
-        <v>515.8866157142367</v>
+        <v>1266.99909216742</v>
       </c>
       <c r="R16">
-        <v>4642.97954142813</v>
+        <v>11402.99182950678</v>
       </c>
       <c r="S16">
-        <v>0.07704506341962085</v>
+        <v>0.1449127134935705</v>
       </c>
       <c r="T16">
-        <v>0.07704506341962086</v>
+        <v>0.1449127134935705</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.344791</v>
+        <v>0.3725693333333333</v>
       </c>
       <c r="H17">
-        <v>1.034373</v>
+        <v>1.117708</v>
       </c>
       <c r="I17">
-        <v>0.00501192432071947</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="J17">
-        <v>0.00501192432071947</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.078637666666665</v>
+        <v>6.516961333333334</v>
       </c>
       <c r="N17">
-        <v>21.235913</v>
+        <v>19.550884</v>
       </c>
       <c r="O17">
-        <v>0.07272632720268933</v>
+        <v>0.1274706027287386</v>
       </c>
       <c r="P17">
-        <v>0.07272632720268932</v>
+        <v>0.1274706027287386</v>
       </c>
       <c r="Q17">
-        <v>2.440650559727666</v>
+        <v>2.428019939319111</v>
       </c>
       <c r="R17">
-        <v>21.96585503754899</v>
+        <v>21.852179453872</v>
       </c>
       <c r="S17">
-        <v>0.0003644988480637606</v>
+        <v>0.0002777041909488075</v>
       </c>
       <c r="T17">
-        <v>0.0003644988480637606</v>
+        <v>0.0002777041909488075</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.344791</v>
+        <v>0.3725693333333333</v>
       </c>
       <c r="H18">
-        <v>1.034373</v>
+        <v>1.117708</v>
       </c>
       <c r="I18">
-        <v>0.00501192432071947</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="J18">
-        <v>0.00501192432071947</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.166899000000001</v>
+        <v>7.166899</v>
       </c>
       <c r="N18">
         <v>21.500697</v>
       </c>
       <c r="O18">
-        <v>0.0736331291764042</v>
+        <v>0.140183267706871</v>
       </c>
       <c r="P18">
-        <v>0.07363312917640419</v>
+        <v>0.140183267706871</v>
       </c>
       <c r="Q18">
-        <v>2.471082273109</v>
+        <v>2.670166782497333</v>
       </c>
       <c r="R18">
-        <v>22.239740457981</v>
+        <v>24.031501042476</v>
       </c>
       <c r="S18">
-        <v>0.0003690436709298986</v>
+        <v>0.0003053996773353293</v>
       </c>
       <c r="T18">
-        <v>0.0003690436709298985</v>
+        <v>0.0003053996773353293</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.344791</v>
+        <v>0.3725693333333333</v>
       </c>
       <c r="H19">
-        <v>1.034373</v>
+        <v>1.117708</v>
       </c>
       <c r="I19">
-        <v>0.00501192432071947</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="J19">
-        <v>0.00501192432071947</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>38.27985899999999</v>
+        <v>14.67239033333333</v>
       </c>
       <c r="N19">
-        <v>114.839577</v>
+        <v>44.017171</v>
       </c>
       <c r="O19">
-        <v>0.3932894551188091</v>
+        <v>0.2869893411358767</v>
       </c>
       <c r="P19">
-        <v>0.3932894551188091</v>
+        <v>0.2869893411358767</v>
       </c>
       <c r="Q19">
-        <v>13.198550864469</v>
+        <v>5.466482684896445</v>
       </c>
       <c r="R19">
-        <v>118.786957780221</v>
+        <v>49.198344164068</v>
       </c>
       <c r="S19">
-        <v>0.001971136985192468</v>
+        <v>0.0006252276296258682</v>
       </c>
       <c r="T19">
-        <v>0.001971136985192468</v>
+        <v>0.0006252276296258683</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.344791</v>
+        <v>0.3725693333333333</v>
       </c>
       <c r="H20">
-        <v>1.034373</v>
+        <v>1.117708</v>
       </c>
       <c r="I20">
-        <v>0.00501192432071947</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="J20">
-        <v>0.00501192432071947</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.39243833333333</v>
+        <v>6.985846333333334</v>
       </c>
       <c r="N20">
-        <v>46.177315</v>
+        <v>20.957539</v>
       </c>
       <c r="O20">
-        <v>0.158142789529777</v>
+        <v>0.1366419098001423</v>
       </c>
       <c r="P20">
-        <v>0.158142789529777</v>
+        <v>0.1366419098001423</v>
       </c>
       <c r="Q20">
-        <v>5.307174205388334</v>
+        <v>2.602712111179111</v>
       </c>
       <c r="R20">
-        <v>47.764567848495</v>
+        <v>23.424409000612</v>
       </c>
       <c r="S20">
-        <v>0.0007925996929907095</v>
+        <v>0.0002976845656837349</v>
       </c>
       <c r="T20">
-        <v>0.0007925996929907095</v>
+        <v>0.0002976845656837349</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.344791</v>
+        <v>0.3725693333333333</v>
       </c>
       <c r="H21">
-        <v>1.034373</v>
+        <v>1.117708</v>
       </c>
       <c r="I21">
-        <v>0.00501192432071947</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="J21">
-        <v>0.00501192432071947</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.41469933333333</v>
+        <v>15.783113</v>
       </c>
       <c r="N21">
-        <v>88.24409800000001</v>
+        <v>47.349339</v>
       </c>
       <c r="O21">
-        <v>0.3022082989723203</v>
+        <v>0.3087148786283714</v>
       </c>
       <c r="P21">
-        <v>0.3022082989723203</v>
+        <v>0.3087148786283714</v>
       </c>
       <c r="Q21">
-        <v>10.14192359783933</v>
+        <v>5.880303888334667</v>
       </c>
       <c r="R21">
-        <v>91.27731238055401</v>
+        <v>52.922734995012</v>
       </c>
       <c r="S21">
-        <v>0.001514645123542633</v>
+        <v>0.0006725583292784007</v>
       </c>
       <c r="T21">
-        <v>0.001514645123542633</v>
+        <v>0.0006725583292784007</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>35.78718966666667</v>
+        <v>74.22831733333334</v>
       </c>
       <c r="H22">
-        <v>107.361569</v>
+        <v>222.684952</v>
       </c>
       <c r="I22">
-        <v>0.5202069841166596</v>
+        <v>0.434045147842873</v>
       </c>
       <c r="J22">
-        <v>0.5202069841166597</v>
+        <v>0.4340451478428729</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.078637666666665</v>
+        <v>6.516961333333334</v>
       </c>
       <c r="N22">
-        <v>21.235913</v>
+        <v>19.550884</v>
       </c>
       <c r="O22">
-        <v>0.07272632720268933</v>
+        <v>0.1274706027287386</v>
       </c>
       <c r="P22">
-        <v>0.07272632720268932</v>
+        <v>0.1274706027287386</v>
       </c>
       <c r="Q22">
-        <v>253.3245487586107</v>
+        <v>483.7430738997298</v>
       </c>
       <c r="R22">
-        <v>2279.920938827497</v>
+        <v>4353.687665097568</v>
       </c>
       <c r="S22">
-        <v>0.0378327433399924</v>
+        <v>0.05532799660701546</v>
       </c>
       <c r="T22">
-        <v>0.0378327433399924</v>
+        <v>0.05532799660701546</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>35.78718966666667</v>
+        <v>74.22831733333334</v>
       </c>
       <c r="H23">
-        <v>107.361569</v>
+        <v>222.684952</v>
       </c>
       <c r="I23">
-        <v>0.5202069841166596</v>
+        <v>0.434045147842873</v>
       </c>
       <c r="J23">
-        <v>0.5202069841166597</v>
+        <v>0.4340451478428729</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.166899000000001</v>
+        <v>7.166899</v>
       </c>
       <c r="N23">
         <v>21.500697</v>
       </c>
       <c r="O23">
-        <v>0.0736331291764042</v>
+        <v>0.140183267706871</v>
       </c>
       <c r="P23">
-        <v>0.07363312917640419</v>
+        <v>0.140183267706871</v>
       </c>
       <c r="Q23">
-        <v>256.4831738348437</v>
+        <v>531.9868532679493</v>
       </c>
       <c r="R23">
-        <v>2308.348564513593</v>
+        <v>4787.881679411544</v>
       </c>
       <c r="S23">
-        <v>0.03830446805992964</v>
+        <v>0.06084586715692588</v>
       </c>
       <c r="T23">
-        <v>0.03830446805992965</v>
+        <v>0.06084586715692587</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>35.78718966666667</v>
+        <v>74.22831733333334</v>
       </c>
       <c r="H24">
-        <v>107.361569</v>
+        <v>222.684952</v>
       </c>
       <c r="I24">
-        <v>0.5202069841166596</v>
+        <v>0.434045147842873</v>
       </c>
       <c r="J24">
-        <v>0.5202069841166597</v>
+        <v>0.4340451478428729</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>38.27985899999999</v>
+        <v>14.67239033333333</v>
       </c>
       <c r="N24">
-        <v>114.839577</v>
+        <v>44.017171</v>
       </c>
       <c r="O24">
-        <v>0.3932894551188091</v>
+        <v>0.2869893411358767</v>
       </c>
       <c r="P24">
-        <v>0.3932894551188091</v>
+        <v>0.2869893411358767</v>
       </c>
       <c r="Q24">
-        <v>1369.928574446257</v>
+        <v>1089.106845701199</v>
       </c>
       <c r="R24">
-        <v>12329.35717001631</v>
+        <v>9801.961611310793</v>
       </c>
       <c r="S24">
-        <v>0.20459192133224</v>
+        <v>0.1245663310026503</v>
       </c>
       <c r="T24">
-        <v>0.2045919213322401</v>
+        <v>0.1245663310026503</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>35.78718966666667</v>
+        <v>74.22831733333334</v>
       </c>
       <c r="H25">
-        <v>107.361569</v>
+        <v>222.684952</v>
       </c>
       <c r="I25">
-        <v>0.5202069841166596</v>
+        <v>0.434045147842873</v>
       </c>
       <c r="J25">
-        <v>0.5202069841166597</v>
+        <v>0.4340451478428729</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.39243833333333</v>
+        <v>6.985846333333334</v>
       </c>
       <c r="N25">
-        <v>46.177315</v>
+        <v>20.957539</v>
       </c>
       <c r="O25">
-        <v>0.158142789529777</v>
+        <v>0.1366419098001423</v>
       </c>
       <c r="P25">
-        <v>0.158142789529777</v>
+        <v>0.1366419098001423</v>
       </c>
       <c r="Q25">
-        <v>550.8521100674706</v>
+        <v>518.5476184725699</v>
       </c>
       <c r="R25">
-        <v>4957.668990607235</v>
+        <v>4666.928566253128</v>
       </c>
       <c r="S25">
-        <v>0.08226698360108091</v>
+        <v>0.05930875794073528</v>
       </c>
       <c r="T25">
-        <v>0.08226698360108094</v>
+        <v>0.05930875794073528</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>35.78718966666667</v>
+        <v>74.22831733333334</v>
       </c>
       <c r="H26">
-        <v>107.361569</v>
+        <v>222.684952</v>
       </c>
       <c r="I26">
-        <v>0.5202069841166596</v>
+        <v>0.434045147842873</v>
       </c>
       <c r="J26">
-        <v>0.5202069841166597</v>
+        <v>0.4340451478428729</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.41469933333333</v>
+        <v>15.783113</v>
       </c>
       <c r="N26">
-        <v>88.24409800000001</v>
+        <v>47.349339</v>
       </c>
       <c r="O26">
-        <v>0.3022082989723203</v>
+        <v>0.3087148786283714</v>
       </c>
       <c r="P26">
-        <v>0.3022082989723203</v>
+        <v>0.3087148786283714</v>
       </c>
       <c r="Q26">
-        <v>1052.669424029974</v>
+        <v>1171.553920271859</v>
       </c>
       <c r="R26">
-        <v>9474.024816269763</v>
+        <v>10543.98528244673</v>
       </c>
       <c r="S26">
-        <v>0.1572108677834165</v>
+        <v>0.133996195135546</v>
       </c>
       <c r="T26">
-        <v>0.1572108677834166</v>
+        <v>0.133996195135546</v>
       </c>
     </row>
   </sheetData>
